--- a/biology/Botanique/Mesophyllum_expansum/Mesophyllum_expansum.xlsx
+++ b/biology/Botanique/Mesophyllum_expansum/Mesophyllum_expansum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mesophyllum expansum  est une espèce d’algues rouges de la famille des Mesophyllaceae.
 </t>
@@ -511,18 +523,20 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce possède plusieurs synonymes taxonomiques :
-Crodelia expansa (Philippi) Kylin, 1956[2]
-Crodelia incrustans var. expansa (Philippi) Heydrich, 1911[2]
-Hyperantherella expansa (Philippi) Heydrich, 1901[2]
-Lithophyllum expansum f. genuinum Foslie, 1897[2]
-Lithophyllum expansum Philippi, 1837[2]
-Lithothamnion expansum (Philippi) Foslie, 1895[2]
-Pseudolithophyllum expansum (Philippi) Me.Lemoine, 1924[2]
-Stereophyllum expansum (Philippi) Heydrich, 1904[2]
-Tenarea expansa (Philippi) Kuntze, 1898[2]</t>
+Crodelia expansa (Philippi) Kylin, 1956
+Crodelia incrustans var. expansa (Philippi) Heydrich, 1911
+Hyperantherella expansa (Philippi) Heydrich, 1901
+Lithophyllum expansum f. genuinum Foslie, 1897
+Lithophyllum expansum Philippi, 1837
+Lithothamnion expansum (Philippi) Foslie, 1895
+Pseudolithophyllum expansum (Philippi) Me.Lemoine, 1924
+Stereophyllum expansum (Philippi) Heydrich, 1904
+Tenarea expansa (Philippi) Kuntze, 1898</t>
         </is>
       </c>
     </row>
